--- a/Decision Tree/13980-AnnisaHimatul-Latihan Pertemuan 7-1.xlsx
+++ b/Decision Tree/13980-AnnisaHimatul-Latihan Pertemuan 7-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annis\Documents\AAA SMT 5\DatMin\pert 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc505613721b5cc7/Dokumen/GitHub/Data_Mining/Decision Tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3288C-8326-4A39-A8CB-F3A33B456435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{63A3288C-8326-4A39-A8CB-F3A33B456435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CD68613-13D5-4372-B4BA-6BBD454BF888}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CED60C8F-D7B4-45E6-AE03-614E4171FA6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CED60C8F-D7B4-45E6-AE03-614E4171FA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>Humadity</t>
-  </si>
-  <si>
     <t>Windy</t>
   </si>
   <si>
@@ -120,16 +117,19 @@
     <t>Perhitungan Node 1.1</t>
   </si>
   <si>
-    <t>Humadity High</t>
-  </si>
-  <si>
     <t>Perhitungan Node 1.1.2</t>
   </si>
   <si>
-    <t>Humadity High and Outlook Rainly</t>
-  </si>
-  <si>
     <t>Jika kelembapan (humidity) normal, maka bermain tenis. Jika kelembapan tinggi, maka keputusan bermain tenis tergantung pada cuaca (outlook). Jika cuaca mendung (cloudy), maka bermain tenis. Jika cuaca cerah (sunny), maka tidak bermain. Jika cuaca hujan (rainy), maka keputusan bermain tenis tergantung pada kondisi angin (windy). Jika tidak ada angin, maka bermain tenis. Jika ada angin, maka tidak bermain.</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Humidity High</t>
+  </si>
+  <si>
+    <t>Humidity High and Outlook Rainly</t>
   </si>
 </sst>
 </file>
@@ -260,7 +260,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -293,16 +293,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>566351</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113270</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327119</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>53288</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>30120</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>106451</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>65562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -331,8 +331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6971270" y="3078892"/>
-          <a:ext cx="4676775" cy="3438525"/>
+          <a:off x="12527979" y="3870107"/>
+          <a:ext cx="4670309" cy="3452176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E1B725-DBCD-4C3F-A1F9-AADE702E0F5E}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="74" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="98" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +801,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3">
         <f>COUNTIF(A2:A15,"Rainly")</f>
@@ -839,7 +839,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1138,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7"/>
     </row>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
@@ -1297,7 +1297,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3">
         <f>COUNTIFS(A2:A15, "Rainly", C2:C15,"High")</f>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="7"/>
     </row>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="3">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="G37" s="3"/>
       <c r="I37" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F37:F38" si="4">(-D38/C38*LOG(D38/C38,2))+(-E38/C38*LOG(E38/C38,2))</f>
+        <f t="shared" ref="F38" si="4">(-D38/C38*LOG(D38/C38,2))+(-E38/C38*LOG(E38/C38,2))</f>
         <v>1</v>
       </c>
       <c r="G38" s="3"/>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
